--- a/Team05_APITesters/src/test/resources/Team05_APITestersData.xlsx
+++ b/Team05_APITesters/src/test/resources/Team05_APITestersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanj\git\Team05_APITesters\Team05_APITesters\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1421CE0A-2D9A-4355-95C2-9581C73BDF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA969282-5972-4BE2-B425-23223AA2253E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7C7F78BF-E529-406D-A7FE-1EBFCB093B0F}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="programController" sheetId="2" r:id="rId2"/>
     <sheet name="programBatchController" sheetId="4" r:id="rId3"/>
     <sheet name="UserModule" sheetId="3" r:id="rId4"/>
+    <sheet name="UserPUT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="131">
   <si>
     <t>password</t>
   </si>
@@ -92,12 +93,6 @@
     <t>active</t>
   </si>
   <si>
-    <t>Program-225</t>
-  </si>
-  <si>
-    <t>Analyst25</t>
-  </si>
-  <si>
     <t>userComments</t>
   </si>
   <si>
@@ -158,15 +153,9 @@
     <t>Williams</t>
   </si>
   <si>
-    <t>www.linkedin.com</t>
-  </si>
-  <si>
     <t>Newyork</t>
   </si>
   <si>
-    <t>John@123</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -176,12 +165,6 @@
     <t>H4-EAD</t>
   </si>
   <si>
-    <t>Program-289</t>
-  </si>
-  <si>
-    <t>Program-227</t>
-  </si>
-  <si>
     <t>batchDescription</t>
   </si>
   <si>
@@ -197,35 +180,266 @@
     <t>update_batchName</t>
   </si>
   <si>
-    <t>updatebatch_programName</t>
-  </si>
-  <si>
-    <t>AutomationApiTesting14</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updatedPgm-172</t>
-  </si>
-  <si>
     <t>R03</t>
   </si>
   <si>
-    <t>Analyst43</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-43</t>
-  </si>
-  <si>
-    <t>Mar24-APITesters-SDET-updated-43</t>
-  </si>
-  <si>
-    <t>John43@gmail.com</t>
+    <t>Aron</t>
+  </si>
+  <si>
+    <t>pinto</t>
+  </si>
+  <si>
+    <t>Canada-Citizen</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>InActive</t>
+  </si>
+  <si>
+    <t>update_batchDescription</t>
+  </si>
+  <si>
+    <t>updated_BatchStatus</t>
+  </si>
+  <si>
+    <t>updated_batchNoOfClasses</t>
+  </si>
+  <si>
+    <t>For postive flow</t>
+  </si>
+  <si>
+    <t>For no auth valida data</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/Kevinn</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/Jony</t>
+  </si>
+  <si>
+    <t>Program-285</t>
+  </si>
+  <si>
+    <t>Analyst85</t>
+  </si>
+  <si>
+    <t>Program-131</t>
+  </si>
+  <si>
+    <t>Analyst31</t>
+  </si>
+  <si>
+    <t>Program-290</t>
+  </si>
+  <si>
+    <t>Analyst90</t>
+  </si>
+  <si>
+    <t>@@@</t>
+  </si>
+  <si>
+    <t>Program-283</t>
+  </si>
+  <si>
+    <t>Program-291</t>
+  </si>
+  <si>
+    <t>Program-125</t>
+  </si>
+  <si>
+    <t>####</t>
+  </si>
+  <si>
+    <t>Program-292</t>
+  </si>
+  <si>
+    <t>Analyst92</t>
+  </si>
+  <si>
+    <t>Program-126</t>
+  </si>
+  <si>
+    <t>Analyst26</t>
+  </si>
+  <si>
+    <t>Analyst33</t>
+  </si>
+  <si>
+    <t>Program-293</t>
+  </si>
+  <si>
+    <t>Program-127</t>
+  </si>
+  <si>
+    <t>Analyst27</t>
+  </si>
+  <si>
+    <t>Program-294</t>
+  </si>
+  <si>
+    <t>Program-284</t>
+  </si>
+  <si>
+    <t>Analyst84</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Negative-post-valid endpoint</t>
+  </si>
+  <si>
+    <t>Post scenarios</t>
+  </si>
+  <si>
+    <t>Invalid data for description</t>
+  </si>
+  <si>
+    <t>Inacjjjjjjjj</t>
+  </si>
+  <si>
+    <t>Invalid data for status</t>
+  </si>
+  <si>
+    <t>John@73</t>
+  </si>
+  <si>
+    <t>Program-390</t>
+  </si>
+  <si>
+    <t>Analyst390</t>
+  </si>
+  <si>
+    <t>Program-391</t>
+  </si>
+  <si>
+    <t>Analyst391</t>
+  </si>
+  <si>
+    <t>Program-392</t>
+  </si>
+  <si>
+    <t>Analyst392</t>
+  </si>
+  <si>
+    <t>Program-393</t>
+  </si>
+  <si>
+    <t>Analyst393</t>
+  </si>
+  <si>
+    <t>Program-394</t>
+  </si>
+  <si>
+    <t>Analyst394</t>
+  </si>
+  <si>
+    <t>Program-395</t>
+  </si>
+  <si>
+    <t>Analyst395</t>
+  </si>
+  <si>
+    <t>Analyst396</t>
+  </si>
+  <si>
+    <t>Program-396</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting620</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting621</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting623</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting624</t>
+  </si>
+  <si>
+    <t>AutomationApiTesting625</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-626</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-627</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-630</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-628</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-629</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-631</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-632</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-633</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-634</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-635</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updated-637</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-638</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-639</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-640</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-641</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-642</t>
+  </si>
+  <si>
+    <t>Mar24-APITesters-SDET-updatedPgm-643</t>
+  </si>
+  <si>
+    <t>John764@gmail.com</t>
+  </si>
+  <si>
+    <t>John523@gmail.com</t>
+  </si>
+  <si>
+    <t>Kev823@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +479,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +508,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,11 +542,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -321,13 +560,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6FE078A9-2091-4834-998B-022AB88F29C5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -701,10 +954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D69072-9316-4EEA-B7BB-715DC00EBB26}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,33 +1003,246 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="A2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="10">
+        <v>123</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1234</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1234</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1234</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -785,61 +1251,252 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A1AB856-E8B4-4F35-915F-DBBB2A18CB79}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6">
-        <v>67</v>
+      <c r="D2" s="10">
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="10">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="10">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>128</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="10">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="10">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="10">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -848,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BD1757-D34C-4977-8D8E-9E24DB6838D0}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -873,111 +1530,277 @@
     <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>26</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2">
+        <v>8057290645</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L3">
+        <v>7534126354</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
+      <c r="P3" t="s">
         <v>40</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2">
-        <v>8553712343</v>
-      </c>
-      <c r="M2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4">
+        <v>8903416350</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{7BCBFDE0-B38A-424D-997C-86FFF34A5C44}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{D1D91951-C442-4B69-BC9E-5B494A1253A5}"/>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{7BCBFDE0-B38A-424D-997C-86FFF34A5C44}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{D1D91951-C442-4B69-BC9E-5B494A1253A5}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{1F9A2FEC-C6DD-4C5E-9893-7BBB062196BA}"/>
+    <hyperlink ref="J4" r:id="rId6" xr:uid="{CA3612E8-F5F0-475C-A1D9-FEE91931FD71}"/>
+    <hyperlink ref="I4" r:id="rId7" xr:uid="{F4FD8144-7345-45A6-8C1A-631546080978}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{384D68E6-C5A9-4DFF-BEB4-0D70F792F3BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20008D35-2754-401C-8193-75DB745FD852}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>8601114340</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>